--- a/CashDropTable.xlsx
+++ b/CashDropTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="98">
   <si>
     <t>Cust ID</t>
   </si>
@@ -58,46 +58,46 @@
     <t>18013142076</t>
   </si>
   <si>
-    <t>18013142586</t>
-  </si>
-  <si>
-    <t>18030102475</t>
-  </si>
-  <si>
     <t>90000031607</t>
   </si>
   <si>
     <t>18030104380</t>
   </si>
   <si>
-    <t>90000019314</t>
-  </si>
-  <si>
-    <t>18013142423</t>
-  </si>
-  <si>
-    <t>18030101424</t>
-  </si>
-  <si>
-    <t>90000013896</t>
-  </si>
-  <si>
-    <t>18030102228</t>
-  </si>
-  <si>
-    <t>90000025027</t>
-  </si>
-  <si>
-    <t>18010002338</t>
-  </si>
-  <si>
-    <t>18030102860</t>
-  </si>
-  <si>
-    <t>18030103144</t>
-  </si>
-  <si>
-    <t>18010130210</t>
+    <t>90000011612</t>
+  </si>
+  <si>
+    <t>18030099291</t>
+  </si>
+  <si>
+    <t>18010113631</t>
+  </si>
+  <si>
+    <t>18013135770</t>
+  </si>
+  <si>
+    <t>18010121352</t>
+  </si>
+  <si>
+    <t>18030104231</t>
+  </si>
+  <si>
+    <t>18030102256</t>
+  </si>
+  <si>
+    <t>90000042885</t>
+  </si>
+  <si>
+    <t>18013139000</t>
+  </si>
+  <si>
+    <t>18030103978</t>
+  </si>
+  <si>
+    <t>18030104290</t>
+  </si>
+  <si>
+    <t>18010145301</t>
   </si>
   <si>
     <t>Rehena Medical Hall</t>
@@ -118,46 +118,46 @@
     <t>Sajib Pharmacy</t>
   </si>
   <si>
-    <t>Janakallan Pharmacy</t>
-  </si>
-  <si>
-    <t>kana Medicine Corner</t>
-  </si>
-  <si>
     <t>Kaderia Pharmacy</t>
   </si>
   <si>
     <t>Shahin Medical Hall</t>
   </si>
   <si>
-    <t>Jani Pharmacy</t>
-  </si>
-  <si>
-    <t>Azad Pharmacy</t>
-  </si>
-  <si>
-    <t>Islamia Medical Hall</t>
-  </si>
-  <si>
-    <t>New Bangladesh Pharmacy</t>
-  </si>
-  <si>
-    <t>Jibon Pharmacy</t>
-  </si>
-  <si>
-    <t>Insaf Medical Hall</t>
-  </si>
-  <si>
-    <t>Shamim Oushad Ghar</t>
-  </si>
-  <si>
-    <t>Molla Medicine</t>
-  </si>
-  <si>
-    <t>Bismilla Pharmacy</t>
-  </si>
-  <si>
-    <t>New Janaprio Pharmacy</t>
+    <t>Riju Pharmacy</t>
+  </si>
+  <si>
+    <t>Pizus Pharmacy</t>
+  </si>
+  <si>
+    <t>Kreepamoee Pharmacy</t>
+  </si>
+  <si>
+    <t>Kamal Medical Hall</t>
+  </si>
+  <si>
+    <t>Mina Medical Hall</t>
+  </si>
+  <si>
+    <t>Al Century Pharmacy</t>
+  </si>
+  <si>
+    <t>Kazi pharmacy</t>
+  </si>
+  <si>
+    <t>Seba Medical Hall</t>
+  </si>
+  <si>
+    <t>Kamal Pharmacy</t>
+  </si>
+  <si>
+    <t>Mukta Pharmacy</t>
+  </si>
+  <si>
+    <t>Ratiba Pharmacy</t>
+  </si>
+  <si>
+    <t>Badhan medical corner</t>
   </si>
   <si>
     <t xml:space="preserve">Bhairab Bazar Bhairab                                       </t>
@@ -172,46 +172,40 @@
     <t xml:space="preserve">Bhagalpur Bajitpur                                          </t>
   </si>
   <si>
-    <t xml:space="preserve">Hospital Gate Monohardi Narsingdi                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hatirdia Monohardi Narsingdi                                </t>
-  </si>
-  <si>
     <t xml:space="preserve">Chatalpar Nasirnagar B.Baria                                </t>
   </si>
   <si>
     <t xml:space="preserve">Karimpur Narsingdi                                          </t>
   </si>
   <si>
-    <t xml:space="preserve">Sharifpur Chalakchor Monohardi Narsingdi                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hatirdia Bazar Monohardi Narsingdi                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morail Sauth Bazar B Baria                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hatirdia Bazar, Monohardi                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gorasal Bazar Narsingdi                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sreenagar Bazar Raipura Narsingdi                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coollege Road Bus Stand Madhabdi                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madhobdi Narsingdi                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheker Chor Madhabdi                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madhabdi Bazar Narshingdi                                   </t>
+    <t xml:space="preserve">Gorurhater More,Madhobdi                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachdona Bazar Narsigndi                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chatalpar Bazar                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austagram                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moddha Austogram Kishoregonj                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Austagram Austagram                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chatalpar Bazar Austogram Kishoregonj                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chatolpar Bazar                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alinagar Austrogram                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austragram Bazar Kishoregonj                                </t>
   </si>
   <si>
     <t xml:space="preserve">BB41                                                        </t>
@@ -229,30 +223,12 @@
     <t xml:space="preserve">BB33                                                        </t>
   </si>
   <si>
-    <t xml:space="preserve">BB63                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB65                                                        </t>
-  </si>
-  <si>
     <t xml:space="preserve">BB44                                                        </t>
   </si>
   <si>
     <t xml:space="preserve">BB24                                                        </t>
   </si>
   <si>
-    <t xml:space="preserve">BB64                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB81                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB61                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB43                                                        </t>
-  </si>
-  <si>
     <t xml:space="preserve">BB13                                                        </t>
   </si>
   <si>
@@ -277,54 +253,51 @@
     <t xml:space="preserve">SKINV180-286910     </t>
   </si>
   <si>
-    <t xml:space="preserve">SKINV180-396389     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-396523     </t>
-  </si>
-  <si>
     <t xml:space="preserve">SKINV180-396802     </t>
   </si>
   <si>
     <t xml:space="preserve">SKINV180-397135     </t>
   </si>
   <si>
-    <t xml:space="preserve">SKINV180-397103     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-397332     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-397050     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-397307     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-397493     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-397389     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-397709     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-397638     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-397335     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-397716     </t>
+    <t xml:space="preserve">SKINV180-397614     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV180-397481     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV180-398137     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV180-398136     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV180-398125     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV180-397889     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV180-397997     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV180-398130     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV180-398067     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV180-398124     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV180-398129     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV180-398128     </t>
   </si>
   <si>
     <t>28 Nov 2019</t>
   </si>
   <si>
-    <t>09 Oct 2020</t>
-  </si>
-  <si>
     <t>10 Oct 2020</t>
   </si>
   <si>
@@ -332,6 +305,9 @@
   </si>
   <si>
     <t>12 Oct 2020</t>
+  </si>
+  <si>
+    <t>13 Oct 2020</t>
   </si>
 </sst>
 </file>
@@ -735,16 +711,16 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I2">
         <v>12132.55</v>
@@ -764,16 +740,16 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H3">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I3">
         <v>11713</v>
@@ -793,16 +769,16 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H4">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I4">
         <v>11655.53</v>
@@ -822,16 +798,16 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H5">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I5">
         <v>9718.23</v>
@@ -851,16 +827,16 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H6">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I6">
         <v>8481.040000000001</v>
@@ -880,16 +856,16 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H7">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I7">
         <v>8097.41</v>
@@ -909,19 +885,19 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H8">
         <v>9</v>
       </c>
       <c r="I8">
-        <v>3274.74</v>
+        <v>22111.86</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -938,19 +914,19 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9">
-        <v>655.23</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -967,19 +943,19 @@
         <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>22111.86</v>
+        <v>1360.33</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -996,19 +972,19 @@
         <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H11">
         <v>7</v>
       </c>
       <c r="I11">
-        <v>4000</v>
+        <v>1215.48</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1025,19 +1001,19 @@
         <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12">
-        <v>2510.78</v>
+        <v>14936.96</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1054,19 +1030,19 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>1000</v>
+        <v>11681.23</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1080,22 +1056,22 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14">
-        <v>936.2</v>
+        <v>11437.94</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1109,22 +1085,22 @@
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15">
-        <v>489.16</v>
+        <v>7364.65</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1138,22 +1114,22 @@
         <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H16">
         <v>6</v>
       </c>
       <c r="I16">
-        <v>7017.09</v>
+        <v>5538.83</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1167,22 +1143,22 @@
         <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H17">
         <v>6</v>
       </c>
       <c r="I17">
-        <v>5000.84</v>
+        <v>4854.86</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1196,22 +1172,22 @@
         <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
         <v>97</v>
-      </c>
-      <c r="G18" t="s">
-        <v>105</v>
       </c>
       <c r="H18">
         <v>6</v>
       </c>
       <c r="I18">
-        <v>4281.93</v>
+        <v>3824.44</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1225,22 +1201,22 @@
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H19">
         <v>6</v>
       </c>
       <c r="I19">
-        <v>3285.77</v>
+        <v>3696.22</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1254,22 +1230,22 @@
         <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H20">
         <v>6</v>
       </c>
       <c r="I20">
-        <v>3270.8</v>
+        <v>3254.66</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1283,22 +1259,22 @@
         <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H21">
         <v>6</v>
       </c>
       <c r="I21">
-        <v>2622.92</v>
+        <v>2940.55</v>
       </c>
     </row>
   </sheetData>
